--- a/bms.Web/uploads/muban/客户馆藏数据表/客户馆藏数据表.xlsx
+++ b/bms.Web/uploads/muban/客户馆藏数据表/客户馆藏数据表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52AB23A-FA3A-47FA-AB5D-682A10BEAC24}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,###.00"/>
   </numFmts>
@@ -77,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -88,6 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,23 +360,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
